--- a/results/basic_metrics_runtimes/TPE_tuning_150_50_trees/results_f1_score_12_datasets_TPE_150_50_trees.xlsx
+++ b/results/basic_metrics_runtimes/TPE_tuning_150_50_trees/results_f1_score_12_datasets_TPE_150_50_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p\Documents\M\2 stopień\masters thesis\boost\results\basic_metrics_runtimes\TPE_tuning_150_50_trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D82903-7C3B-41BD-8092-C198B83D211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74F5F66-6075-45BD-BE29-3A1FFEEFE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,12 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -436,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2330,172 +2327,172 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>0.80038572806171637</v>
-      </c>
-      <c r="B112" s="2">
+      <c r="A112">
+        <v>0.79960707269155218</v>
+      </c>
+      <c r="B112">
         <v>0.81243926141885336</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>0.81555333998005985</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112">
         <v>0.74734982332155475</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>0.82341650671785027</v>
-      </c>
-      <c r="B113" s="2">
+      <c r="A113">
+        <v>0.83622350674373802</v>
+      </c>
+      <c r="B113">
         <v>0.83070866141732291</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>0.83316880552813433</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113">
         <v>0.7859030837004406</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>0.8410661401776901</v>
-      </c>
-      <c r="B114" s="2">
+      <c r="A114">
+        <v>0.8338249754178958</v>
+      </c>
+      <c r="B114">
         <v>0.83300589390962665</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>0.84189325276938576</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114">
         <v>0.78392857142857142</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>0.82090997095837381</v>
-      </c>
-      <c r="B115" s="2">
+      <c r="A115">
+        <v>0.81986368062317427</v>
+      </c>
+      <c r="B115">
         <v>0.8176470588235295</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>0.8367952522255192</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115">
         <v>0.78558875219683644</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>0.81075697211155373</v>
-      </c>
-      <c r="B116" s="2">
+      <c r="A116">
+        <v>0.82793522267206476</v>
+      </c>
+      <c r="B116">
         <v>0.81206030150753761</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>0.82135523613963035</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116">
         <v>0.79491833030852987</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>0.82960077896786755</v>
-      </c>
-      <c r="B117" s="2">
+      <c r="A117">
+        <v>0.83510125361620058</v>
+      </c>
+      <c r="B117">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>0.82189054726368171</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117">
         <v>0.78863232682060391</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>0.80116959064327475</v>
-      </c>
-      <c r="B118" s="2">
+      <c r="A118">
+        <v>0.79883381924198249</v>
+      </c>
+      <c r="B118">
         <v>0.79377431906614793</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>0.80784313725490198</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118">
         <v>0.75598935226264419</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>0.80268199233716486</v>
-      </c>
-      <c r="B119" s="2">
+      <c r="A119">
+        <v>0.83011583011583012</v>
+      </c>
+      <c r="B119">
         <v>0.82410106899902813</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>0.82826300294406296</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>0.78540399652476112</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>0.82539682539682546</v>
-      </c>
-      <c r="B120" s="2">
+      <c r="A120">
+        <v>0.82423038728897713</v>
+      </c>
+      <c r="B120">
         <v>0.81355932203389825</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>0.84084084084084088</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>0.79170423805229939</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>0.81714285714285717</v>
-      </c>
-      <c r="B121" s="2">
+      <c r="A121">
+        <v>0.83223992502343003</v>
+      </c>
+      <c r="B121">
         <v>0.82521489971346706</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>0.82105263157894737</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121">
         <v>0.79255319148936165</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" t="s">
         <v>15</v>
       </c>
     </row>
